--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\software\Git\source\repos\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8889F8-DC39-433F-9CF9-B939A13FA144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
@@ -20,13 +19,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>da15d917-ab5a-4d2b-bc8c-26855b97a543</author>
     <author>9295af04-e230-4580-8faa-171dce54b53a</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="N2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4819" uniqueCount="3614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4821" uniqueCount="3616">
   <si>
     <t>$id</t>
   </si>
@@ -11008,13 +11007,21 @@
   </si>
   <si>
     <t>【绝密消息】你捡到一张纸条，上面写着一位程序的联系方式：1281616438。纸条背面又写着：加的人太多了！不加了不加了</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你退休了。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你终于可以开始享受自己的人生了。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -11603,14 +11610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C857" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C1567" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D866" sqref="D866"/>
+      <selection pane="bottomRight" activeCell="C1589" sqref="C1589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -54443,17 +54450,27 @@
       <c r="P1588" s="20"/>
     </row>
     <row r="1589" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1589" s="15"/>
-      <c r="B1589" s="15"/>
-      <c r="C1589" s="16"/>
+      <c r="A1589" s="15">
+        <v>40000</v>
+      </c>
+      <c r="B1589" s="15" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C1589" s="16" t="s">
+        <v>3615</v>
+      </c>
       <c r="D1589" s="17"/>
       <c r="E1589" s="17"/>
       <c r="F1589" s="17"/>
       <c r="G1589" s="17"/>
       <c r="H1589" s="17"/>
-      <c r="I1589" s="17"/>
+      <c r="I1589" s="17">
+        <v>-1</v>
+      </c>
       <c r="J1589" s="17"/>
-      <c r="K1589" s="17"/>
+      <c r="K1589" s="17">
+        <v>1</v>
+      </c>
       <c r="L1589" s="18"/>
       <c r="M1589" s="18"/>
       <c r="N1589" s="19"/>
